--- a/data/pca/factorExposure/factorExposure_2013-07-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-01.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002072422882085224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001445099503574649</v>
+      </c>
+      <c r="C2">
+        <v>0.03200334536824536</v>
+      </c>
+      <c r="D2">
+        <v>0.004331520040265514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002795086656897274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006246275536178418</v>
+      </c>
+      <c r="C4">
+        <v>0.08334188627352469</v>
+      </c>
+      <c r="D4">
+        <v>0.08006285855496385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0002946455583727191</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01355352416698351</v>
+      </c>
+      <c r="C6">
+        <v>0.1055676585170248</v>
+      </c>
+      <c r="D6">
+        <v>0.03961360565431316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001256296073929526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004927268655778205</v>
+      </c>
+      <c r="C7">
+        <v>0.05162744160101734</v>
+      </c>
+      <c r="D7">
+        <v>0.03756066031921836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002866501905383134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.006146235660093222</v>
+      </c>
+      <c r="C8">
+        <v>0.03862143532963462</v>
+      </c>
+      <c r="D8">
+        <v>0.03729208801473307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005853747125358176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004218796209672876</v>
+      </c>
+      <c r="C9">
+        <v>0.06741050343538586</v>
+      </c>
+      <c r="D9">
+        <v>0.0702191727455158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004563429105223975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005928485835420174</v>
+      </c>
+      <c r="C10">
+        <v>0.08911656418961089</v>
+      </c>
+      <c r="D10">
+        <v>-0.2181121381192173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005926249149615025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005142368330018758</v>
+      </c>
+      <c r="C11">
+        <v>0.07822092442765209</v>
+      </c>
+      <c r="D11">
+        <v>0.06523721716274423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0009962704137940041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.00392647443463894</v>
+      </c>
+      <c r="C12">
+        <v>0.06231930085672263</v>
+      </c>
+      <c r="D12">
+        <v>0.04675324324279016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002737234438776441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008543289706314511</v>
+      </c>
+      <c r="C13">
+        <v>0.06780677955503706</v>
+      </c>
+      <c r="D13">
+        <v>0.07761508881652948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.003841916551891451</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001982493873170165</v>
+      </c>
+      <c r="C14">
+        <v>0.04745750705867055</v>
+      </c>
+      <c r="D14">
+        <v>0.01449583729907172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003196922989174028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005929582932318351</v>
+      </c>
+      <c r="C15">
+        <v>0.03728064526834522</v>
+      </c>
+      <c r="D15">
+        <v>0.0444781533843417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003636227674927826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005156634583804976</v>
+      </c>
+      <c r="C16">
+        <v>0.06398184952391694</v>
+      </c>
+      <c r="D16">
+        <v>0.0499501628887637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.00139901557921829</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009406369354470734</v>
+      </c>
+      <c r="C20">
+        <v>0.0648570874105977</v>
+      </c>
+      <c r="D20">
+        <v>0.05745891212266242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003061161810311099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.00973835851912002</v>
+      </c>
+      <c r="C21">
+        <v>0.02613360562789037</v>
+      </c>
+      <c r="D21">
+        <v>0.03774857103334849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01648615343530623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007528221329930878</v>
+      </c>
+      <c r="C22">
+        <v>0.08469508823693009</v>
+      </c>
+      <c r="D22">
+        <v>0.1054571628554153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01674676433899223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007284096231679168</v>
+      </c>
+      <c r="C23">
+        <v>0.08728124272839052</v>
+      </c>
+      <c r="D23">
+        <v>0.1026209062275647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004548601350969129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004712871261385198</v>
+      </c>
+      <c r="C24">
+        <v>0.07160332430558294</v>
+      </c>
+      <c r="D24">
+        <v>0.0596694925763329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005631540599397574</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003076857657089887</v>
+      </c>
+      <c r="C25">
+        <v>0.0763467927555921</v>
+      </c>
+      <c r="D25">
+        <v>0.06366707080644057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007076047719364855</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003738288482063607</v>
+      </c>
+      <c r="C26">
+        <v>0.04322178871474854</v>
+      </c>
+      <c r="D26">
+        <v>0.01705211589655998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005287487511800608</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0002235072003002492</v>
+      </c>
+      <c r="C28">
+        <v>0.1376738918203977</v>
+      </c>
+      <c r="D28">
+        <v>-0.3013464574278653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001624344520840107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003487459392392987</v>
+      </c>
+      <c r="C29">
+        <v>0.05019221383061043</v>
+      </c>
+      <c r="D29">
+        <v>0.02055166707640004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.005617887105786474</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009316069321881537</v>
+      </c>
+      <c r="C30">
+        <v>0.1328222904058804</v>
+      </c>
+      <c r="D30">
+        <v>0.1115493193731416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001757820966806516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006171112812602868</v>
+      </c>
+      <c r="C31">
+        <v>0.04673782197613797</v>
+      </c>
+      <c r="D31">
+        <v>0.03482413436933136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.000402277252067523</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003612842475414478</v>
+      </c>
+      <c r="C32">
+        <v>0.04048944010963953</v>
+      </c>
+      <c r="D32">
+        <v>0.01663341757891288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004560435854883972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008104881499074486</v>
+      </c>
+      <c r="C33">
+        <v>0.08114218185544222</v>
+      </c>
+      <c r="D33">
+        <v>0.07676925614580506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.005980700414693199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003848479582029195</v>
+      </c>
+      <c r="C34">
+        <v>0.0560471202291883</v>
+      </c>
+      <c r="D34">
+        <v>0.04438921073106256</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004286348931624256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004841183019545245</v>
+      </c>
+      <c r="C35">
+        <v>0.03875935621783308</v>
+      </c>
+      <c r="D35">
+        <v>0.01676519517473632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005525924255026655</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00126638898558968</v>
+      </c>
+      <c r="C36">
+        <v>0.0271617397509758</v>
+      </c>
+      <c r="D36">
+        <v>0.01672223515706637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002254659149667989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009202851391936105</v>
+      </c>
+      <c r="C38">
+        <v>0.03535943394123855</v>
+      </c>
+      <c r="D38">
+        <v>0.03027746640886554</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01563839493515762</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001062218485263774</v>
+      </c>
+      <c r="C39">
+        <v>0.1107950237809506</v>
+      </c>
+      <c r="D39">
+        <v>0.08631967579514656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008357846631792844</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002449392851329227</v>
+      </c>
+      <c r="C40">
+        <v>0.08507139024626029</v>
+      </c>
+      <c r="D40">
+        <v>0.03340337204855022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>5.453090738535998e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007573288100880874</v>
+      </c>
+      <c r="C41">
+        <v>0.04147839674268616</v>
+      </c>
+      <c r="D41">
+        <v>0.03473397848814301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002122956734082946</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003005869956532144</v>
+      </c>
+      <c r="C43">
+        <v>0.05164566989431507</v>
+      </c>
+      <c r="D43">
+        <v>0.02812613172185235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005257410212712644</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003670480139093978</v>
+      </c>
+      <c r="C44">
+        <v>0.1046631357857002</v>
+      </c>
+      <c r="D44">
+        <v>0.08388398859894451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002401640938305106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002571242439188682</v>
+      </c>
+      <c r="C46">
+        <v>0.03366132036481007</v>
+      </c>
+      <c r="D46">
+        <v>0.03393008931818251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002640380362064289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.00276953948891781</v>
+      </c>
+      <c r="C47">
+        <v>0.04102264249265534</v>
+      </c>
+      <c r="D47">
+        <v>0.02518928053689093</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003701285488873728</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006453329764643516</v>
+      </c>
+      <c r="C48">
+        <v>0.03268767013803801</v>
+      </c>
+      <c r="D48">
+        <v>0.02031075759935085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01628163459063585</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01397135400005925</v>
+      </c>
+      <c r="C49">
+        <v>0.1650168197916857</v>
+      </c>
+      <c r="D49">
+        <v>0.04323729940763931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003174655239554315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.004035176644078986</v>
+      </c>
+      <c r="C50">
+        <v>0.04288695376552742</v>
+      </c>
+      <c r="D50">
+        <v>0.03768178054377457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002637517723586981</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004177824883229119</v>
+      </c>
+      <c r="C51">
+        <v>0.0200062270827677</v>
+      </c>
+      <c r="D51">
+        <v>0.03464010995424478</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>8.965809602223266e-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02015610844190621</v>
+      </c>
+      <c r="C53">
+        <v>0.1626071360731519</v>
+      </c>
+      <c r="D53">
+        <v>0.05933911770136336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001383606161452903</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008698875799526959</v>
+      </c>
+      <c r="C54">
+        <v>0.05395975477480811</v>
+      </c>
+      <c r="D54">
+        <v>0.04308961663875842</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.0059560640833192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009562270767172877</v>
+      </c>
+      <c r="C55">
+        <v>0.1035615692362284</v>
+      </c>
+      <c r="D55">
+        <v>0.05492229003950065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001460343241891185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01891500175507822</v>
+      </c>
+      <c r="C56">
+        <v>0.1671582262517959</v>
+      </c>
+      <c r="D56">
+        <v>0.06097645335655433</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008952961892198383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01964515630342354</v>
+      </c>
+      <c r="C58">
+        <v>0.09990015045560278</v>
+      </c>
+      <c r="D58">
+        <v>0.07940329204682899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009189949829330461</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.008701702444121157</v>
+      </c>
+      <c r="C59">
+        <v>0.1778447589892646</v>
+      </c>
+      <c r="D59">
+        <v>-0.2684494832324144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008858898358352189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.0229839656295088</v>
+      </c>
+      <c r="C60">
+        <v>0.2209341175918551</v>
+      </c>
+      <c r="D60">
+        <v>0.0362488587734778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01796591611527358</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001958280494530974</v>
+      </c>
+      <c r="C61">
+        <v>0.09305944606769302</v>
+      </c>
+      <c r="D61">
+        <v>0.06564541372192478</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1890131557262442</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448706121351039</v>
+      </c>
+      <c r="C62">
+        <v>0.06777299972312327</v>
+      </c>
+      <c r="D62">
+        <v>0.05352568103381532</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003029128498239178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006743761413054591</v>
+      </c>
+      <c r="C63">
+        <v>0.06001481405021104</v>
+      </c>
+      <c r="D63">
+        <v>0.0222562997633742</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006339977732364744</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01567273235662011</v>
+      </c>
+      <c r="C64">
+        <v>0.09658692431431871</v>
+      </c>
+      <c r="D64">
+        <v>0.07061298786345666</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0005704661207634508</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01729258643529572</v>
+      </c>
+      <c r="C65">
+        <v>0.110058125841305</v>
+      </c>
+      <c r="D65">
+        <v>0.03967621298983051</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01222957070356797</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.0123281823887946</v>
+      </c>
+      <c r="C66">
+        <v>0.1470550441696503</v>
+      </c>
+      <c r="D66">
+        <v>0.1252048732892423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001802471768870345</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01515313358975738</v>
+      </c>
+      <c r="C67">
+        <v>0.06394265229106597</v>
+      </c>
+      <c r="D67">
+        <v>0.04313019647864137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.009162154954270266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001500086030191558</v>
+      </c>
+      <c r="C68">
+        <v>0.1211489981408561</v>
+      </c>
+      <c r="D68">
+        <v>-0.2631884014131194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003371798766195097</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.00514549031389001</v>
+      </c>
+      <c r="C69">
+        <v>0.04583672994660625</v>
+      </c>
+      <c r="D69">
+        <v>0.04276158534176944</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001285596416211289</v>
+      </c>
+      <c r="C70">
+        <v>0.001564709954627472</v>
+      </c>
+      <c r="D70">
+        <v>0.001511843581549533</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004314631979595212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006146730607999455</v>
+      </c>
+      <c r="C71">
+        <v>0.1251196939171909</v>
+      </c>
+      <c r="D71">
+        <v>-0.2797462824058526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008574071211721915</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01533157905875007</v>
+      </c>
+      <c r="C72">
+        <v>0.1469332405775943</v>
+      </c>
+      <c r="D72">
+        <v>0.03566688455606531</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01423435185376693</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03113056475101414</v>
+      </c>
+      <c r="C73">
+        <v>0.2832297350590065</v>
+      </c>
+      <c r="D73">
+        <v>0.05636844325676827</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005848859983801567</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001839687125666096</v>
+      </c>
+      <c r="C74">
+        <v>0.1016479860596262</v>
+      </c>
+      <c r="D74">
+        <v>0.04727853770811516</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006665142361804172</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01044334869971419</v>
+      </c>
+      <c r="C75">
+        <v>0.1303984571088446</v>
+      </c>
+      <c r="D75">
+        <v>0.04666252750165211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01053475803899403</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02103756143244233</v>
+      </c>
+      <c r="C76">
+        <v>0.1413161963324834</v>
+      </c>
+      <c r="D76">
+        <v>0.07538768866033574</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008543303786187378</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02244040178198698</v>
+      </c>
+      <c r="C77">
+        <v>0.1169915798813365</v>
+      </c>
+      <c r="D77">
+        <v>0.1284835893420744</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0007912184723270846</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01472622136126786</v>
+      </c>
+      <c r="C78">
+        <v>0.0895857335406151</v>
+      </c>
+      <c r="D78">
+        <v>0.06668268911787112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02636327515897001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03666332271509805</v>
+      </c>
+      <c r="C79">
+        <v>0.1524762634229162</v>
+      </c>
+      <c r="D79">
+        <v>0.0433323723296289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003206604872952635</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01085299535749923</v>
+      </c>
+      <c r="C80">
+        <v>0.0436643205716133</v>
+      </c>
+      <c r="D80">
+        <v>0.03010168442600349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>5.861471149022164e-05</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01435183648016661</v>
+      </c>
+      <c r="C81">
+        <v>0.1182061733513621</v>
+      </c>
+      <c r="D81">
+        <v>0.06365111380527393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006308975504910456</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01871926695449223</v>
+      </c>
+      <c r="C82">
+        <v>0.1380987383502872</v>
+      </c>
+      <c r="D82">
+        <v>0.05300934837789258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008593472881823118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009673787175625215</v>
+      </c>
+      <c r="C83">
+        <v>0.05177744838892345</v>
+      </c>
+      <c r="D83">
+        <v>0.04964424501803734</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01354487302238845</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01230874602408082</v>
+      </c>
+      <c r="C84">
+        <v>0.03083323280005364</v>
+      </c>
+      <c r="D84">
+        <v>-0.000689110340163352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01636027671037274</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0284281072962405</v>
+      </c>
+      <c r="C85">
+        <v>0.1270819022392005</v>
+      </c>
+      <c r="D85">
+        <v>0.059987497318059</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003673520870824912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004762371377668688</v>
+      </c>
+      <c r="C86">
+        <v>0.04761909278778114</v>
+      </c>
+      <c r="D86">
+        <v>0.02041089698866909</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.00816034352657417</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01018821054760168</v>
+      </c>
+      <c r="C87">
+        <v>0.123268119913072</v>
+      </c>
+      <c r="D87">
+        <v>0.08284637728302094</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01477269427375813</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.003029237595289232</v>
+      </c>
+      <c r="C88">
+        <v>0.07295212324934154</v>
+      </c>
+      <c r="D88">
+        <v>0.01767838400844099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01535349744231125</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001962092636540451</v>
+      </c>
+      <c r="C89">
+        <v>0.1754841674964072</v>
+      </c>
+      <c r="D89">
+        <v>-0.3285427262098384</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002375073553774323</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007619513062852123</v>
+      </c>
+      <c r="C90">
+        <v>0.1576990716220293</v>
+      </c>
+      <c r="D90">
+        <v>-0.3146119107756917</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0005001473573432029</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009899173636468542</v>
+      </c>
+      <c r="C91">
+        <v>0.1016464608464822</v>
+      </c>
+      <c r="D91">
+        <v>0.02354852076958977</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.0182989699047161</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0007554447688749764</v>
+      </c>
+      <c r="C92">
+        <v>0.1638433896759099</v>
+      </c>
+      <c r="D92">
+        <v>-0.3150465451211371</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.00183070797815288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005132686321585279</v>
+      </c>
+      <c r="C93">
+        <v>0.1394203247765471</v>
+      </c>
+      <c r="D93">
+        <v>-0.3079640574314281</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001186079858749452</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02182060079413386</v>
+      </c>
+      <c r="C94">
+        <v>0.1547309854663091</v>
+      </c>
+      <c r="D94">
+        <v>0.03588485768691572</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006887853175924136</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01665035984040503</v>
+      </c>
+      <c r="C95">
+        <v>0.1201574297697035</v>
+      </c>
+      <c r="D95">
+        <v>0.06908974667937004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004574613812929998</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03240031129094367</v>
+      </c>
+      <c r="C97">
+        <v>0.1661107585118551</v>
+      </c>
+      <c r="D97">
+        <v>0.04949235939554528</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.010012029955905</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03585093669133959</v>
+      </c>
+      <c r="C98">
+        <v>0.2576155121795812</v>
+      </c>
+      <c r="D98">
+        <v>0.05317382045913497</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9792084090596246</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982599512351184</v>
+      </c>
+      <c r="C99">
+        <v>-0.1068397624211383</v>
+      </c>
+      <c r="D99">
+        <v>-0.03759778803280342</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.0015769787972984</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003532000594121446</v>
+      </c>
+      <c r="C101">
+        <v>0.05027491977674114</v>
+      </c>
+      <c r="D101">
+        <v>0.02060704482483101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
